--- a/data/input/absenteeism_data_5.xlsx
+++ b/data/input/absenteeism_data_5.xlsx
@@ -476,219 +476,219 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27643</v>
+        <v>14563</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Yago Teixeira</t>
+          <t>Yago Ferreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45092</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>6266.42</v>
+        <v>9184.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>63998</v>
+        <v>22929</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>João Felipe Moreira</t>
+          <t>Rebeca Rodrigues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45092</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>8878.719999999999</v>
+        <v>6174.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>38813</v>
+        <v>37309</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alícia Nascimento</t>
+          <t>Dr. Bryan Cavalcanti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>4973.57</v>
+        <v>9608.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67816</v>
+        <v>10174</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Heitor da Cruz</t>
+          <t>Alice Moreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45087</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>7282.71</v>
+        <v>3265.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>75965</v>
+        <v>65867</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Laura Lopes</t>
+          <t>Isabella Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45078</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>10779.35</v>
+        <v>4619.61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>53756</v>
+        <v>44351</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Samuel Ramos</t>
+          <t>Luiz Otávio Sales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45086</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>3975.05</v>
+        <v>11319.29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>57119</v>
+        <v>38103</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kaique Peixoto</t>
+          <t>Eduarda Alves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G8" t="n">
-        <v>2810.72</v>
+        <v>8416.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>71031</v>
+        <v>62020</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Enrico Campos</t>
+          <t>João Lucas Sales</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -700,48 +700,48 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>5409.52</v>
+        <v>3758.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47374</v>
+        <v>44923</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Beatriz Rodrigues</t>
+          <t>Kamilly Carvalho</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45098</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>9966.860000000001</v>
+        <v>4111.97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7201</v>
+        <v>82665</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Laura Sales</t>
+          <t>Davi Luiz das Neves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45101</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="n">
-        <v>8675.5</v>
+        <v>11300.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_5.xlsx
+++ b/data/input/absenteeism_data_5.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14563</v>
+        <v>57575</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yago Ferreira</t>
+          <t>Alana Ribeiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45084</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>9184.92</v>
+        <v>9781.41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22929</v>
+        <v>89935</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rebeca Rodrigues</t>
+          <t>Luiza Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,245 +523,245 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45078</v>
       </c>
       <c r="G3" t="n">
-        <v>6174.7</v>
+        <v>4628.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>37309</v>
+        <v>26666</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Bryan Cavalcanti</t>
+          <t>Ana Beatriz Barbosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45081</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>9608.26</v>
+        <v>9264.23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10174</v>
+        <v>53734</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alice Moreira</t>
+          <t>Emanuel Gomes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>3265.61</v>
+        <v>3448.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65867</v>
+        <v>35172</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isabella Rocha</t>
+          <t>Ana Carolina Castro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>4619.61</v>
+        <v>6277.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>44351</v>
+        <v>99011</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Otávio Sales</t>
+          <t>Sr. Thales Aragão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45098</v>
       </c>
       <c r="G7" t="n">
-        <v>11319.29</v>
+        <v>10660.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38103</v>
+        <v>32133</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Eduarda Alves</t>
+          <t>Marcos Vinicius Souza</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45100</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>8416.59</v>
+        <v>8648.360000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62020</v>
+        <v>39758</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>João Lucas Sales</t>
+          <t>André Almeida</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45095</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>3758.29</v>
+        <v>3235.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>44923</v>
+        <v>73703</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kamilly Carvalho</t>
+          <t>Gustavo Henrique Porto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>4111.97</v>
+        <v>11584.13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>82665</v>
+        <v>37616</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Davi Luiz das Neves</t>
+          <t>Luna da Conceição</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="G11" t="n">
-        <v>11300.5</v>
+        <v>9691.360000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_5.xlsx
+++ b/data/input/absenteeism_data_5.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57575</v>
+        <v>64060</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alana Ribeiro</t>
+          <t>Ana Lívia Barros</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>9781.41</v>
+        <v>5167.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89935</v>
+        <v>23895</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luiza Costa</t>
+          <t>Sra. Julia Barbosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,27 +523,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>4628.96</v>
+        <v>3127.63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>26666</v>
+        <v>12921</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Beatriz Barbosa</t>
+          <t>Srta. Sophia da Luz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,56 +552,56 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>9264.23</v>
+        <v>6763.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>53734</v>
+        <v>89022</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emanuel Gomes</t>
+          <t>Vitor Vieira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>3448.28</v>
+        <v>4349.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35172</v>
+        <v>96108</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Carolina Castro</t>
+          <t>Ana Júlia da Cruz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>6277.26</v>
+        <v>11198.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99011</v>
+        <v>60106</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Thales Aragão</t>
+          <t>Srta. Sofia Gonçalves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>10660.38</v>
+        <v>9235.190000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>32133</v>
+        <v>2840</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Souza</t>
+          <t>Eduardo Nascimento</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,26 +664,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>8648.360000000001</v>
+        <v>7322.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39758</v>
+        <v>92611</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>André Almeida</t>
+          <t>Luna Monteiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45092</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>3235.94</v>
+        <v>8911.799999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73703</v>
+        <v>56750</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gustavo Henrique Porto</t>
+          <t>Carolina Nascimento</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>11584.13</v>
+        <v>10362.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>37616</v>
+        <v>40923</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luna da Conceição</t>
+          <t>Juan Moreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45102</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>9691.360000000001</v>
+        <v>7957.74</v>
       </c>
     </row>
   </sheetData>
